--- a/medicine/Enfance/Todd_Strasser/Todd_Strasser.xlsx
+++ b/medicine/Enfance/Todd_Strasser/Todd_Strasser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Todd Strasser, né le 5 mai 1950 à New York, est un journaliste et écrivain  américain ayant publié de nombreux romans, certains sous les pseudonymes Morton Rhue et T. S. Rue.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Todd Strasser est né le 5 mai 1950 à New York. Il fait des études de littérature et devient par la suite journaliste, notamment au New York Times. Il y publie des articles et des nouvelles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Todd Strasser est né le 5 mai 1950 à New York. Il fait des études de littérature et devient par la suite journaliste, notamment au New York Times. Il y publie des articles et des nouvelles.
 Il écrit aussi de nombreux romans primés, pour jeunes adultes et adolescents. Il écrit sur le nazisme, le harcèlement scolaire, les sans-abris, l'usage des armes à feu à l'école, le racisme et la sexualité.   
 Il est notamment l'auteur du roman The Accident, repris en film sous le nom Over the Limit. Le roman Workin' For Peanuts a été adapté à la télévision sous le même titre. Il a aussi écrit des séries pour jeunes adultes. Son œuvre la plus connue, La Vague, possède son adaptation au cinéma et en manuel d'histoire en Allemagne. La Vague a pour moralité que la dictature est encore possible aujourd'hui et qu'il faut faire attention aux tentatives d'embrigadement, sur les adolescents principalement.  
 </t>
@@ -544,7 +558,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Todd Strasser a écrit un total de 144 récits, dont 27 romans.
 Super Mario Brothers. Phoenix, AZ: Blue Cloud Books 1993.  (ISBN 1-562-82471-6)
